--- a/results.xlsx
+++ b/results.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2674</v>
+        <v>0.2673</v>
       </c>
       <c r="C2" t="n">
-        <v>2.6051</v>
+        <v>2.6488</v>
       </c>
       <c r="D2" t="n">
-        <v>9.517099999999999</v>
+        <v>8.6965</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1347</v>
+        <v>0.1407</v>
       </c>
       <c r="C3" t="n">
-        <v>1.3624</v>
+        <v>1.4107</v>
       </c>
       <c r="D3" t="n">
-        <v>3.9843</v>
+        <v>4.2859</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1055</v>
+        <v>0.105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9105</v>
+        <v>1.0019</v>
       </c>
       <c r="D4" t="n">
-        <v>2.6766</v>
+        <v>2.8659</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.0866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.726</v>
+        <v>0.7406</v>
       </c>
       <c r="D5" t="n">
-        <v>2.1269</v>
+        <v>2.2327</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0704</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6274999999999999</v>
+        <v>0.6341</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8538</v>
+        <v>1.8515</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0665</v>
+        <v>0.0775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5514</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6253</v>
+        <v>1.6724</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0565</v>
+        <v>0.0609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4895</v>
+        <v>0.528</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4673</v>
+        <v>1.5357</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.0543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4527</v>
+        <v>0.4759</v>
       </c>
       <c r="D9" t="n">
-        <v>1.3674</v>
+        <v>1.4243</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.049</v>
+        <v>0.0503</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4297</v>
+        <v>0.4526</v>
       </c>
       <c r="D10" t="n">
-        <v>1.2783</v>
+        <v>1.3321</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0448</v>
+        <v>0.0465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4002</v>
+        <v>0.4204</v>
       </c>
       <c r="D11" t="n">
-        <v>1.1826</v>
+        <v>1.2392</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0435</v>
+        <v>0.0439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3823</v>
+        <v>0.3904</v>
       </c>
       <c r="D12" t="n">
-        <v>1.1238</v>
+        <v>1.158</v>
       </c>
     </row>
     <row r="13">
@@ -605,10 +605,10 @@
         <v>0.0469</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3734</v>
+        <v>0.3888</v>
       </c>
       <c r="D13" t="n">
-        <v>1.1021</v>
+        <v>1.1274</v>
       </c>
     </row>
   </sheetData>
